--- a/Crawling/crawling_data/day_genie/day_genie_20220126.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="234">
   <si>
     <t>날짜</t>
   </si>
@@ -94,8 +94,7 @@
     <t>호랑수월가</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>문득</t>
@@ -239,8 +238,7 @@
     <t>매일 크리스마스 (Everyday Christmas)</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>언덕나무</t>
@@ -568,9 +566,6 @@
   </si>
   <si>
     <t>Dreams Come True - SM STATION</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>Bipolar</t>
@@ -1455,7 +1450,7 @@
         <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>184</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1472,7 +1467,7 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1523,7 +1518,7 @@
         <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1557,7 +1552,7 @@
         <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1574,7 +1569,7 @@
         <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1591,7 +1586,7 @@
         <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1643,7 +1638,7 @@
         <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1660,7 +1655,7 @@
         <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1677,7 +1672,7 @@
         <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1694,7 +1689,7 @@
         <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1728,7 +1723,7 @@
         <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1745,7 +1740,7 @@
         <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1762,7 +1757,7 @@
         <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1813,7 +1808,7 @@
         <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1847,7 +1842,7 @@
         <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1864,7 +1859,7 @@
         <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1881,7 +1876,7 @@
         <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1898,7 +1893,7 @@
         <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1915,7 +1910,7 @@
         <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1932,7 +1927,7 @@
         <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1949,7 +1944,7 @@
         <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1983,7 +1978,7 @@
         <v>108</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2000,7 +1995,7 @@
         <v>137</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2017,7 +2012,7 @@
         <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2034,7 +2029,7 @@
         <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2051,7 +2046,7 @@
         <v>112</v>
       </c>
       <c r="E57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2068,7 +2063,7 @@
         <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2085,7 +2080,7 @@
         <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2119,7 +2114,7 @@
         <v>114</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2153,7 +2148,7 @@
         <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2170,7 +2165,7 @@
         <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2187,7 +2182,7 @@
         <v>131</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2204,7 +2199,7 @@
         <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2221,7 +2216,7 @@
         <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2272,7 +2267,7 @@
         <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2289,7 +2284,7 @@
         <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2306,7 +2301,7 @@
         <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2323,7 +2318,7 @@
         <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2340,7 +2335,7 @@
         <v>111</v>
       </c>
       <c r="E74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2374,7 +2369,7 @@
         <v>112</v>
       </c>
       <c r="E76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2425,7 +2420,7 @@
         <v>159</v>
       </c>
       <c r="E79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2459,7 +2454,7 @@
         <v>160</v>
       </c>
       <c r="E81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2476,7 +2471,7 @@
         <v>161</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2493,7 +2488,7 @@
         <v>162</v>
       </c>
       <c r="E83" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2578,7 +2573,7 @@
         <v>127</v>
       </c>
       <c r="E88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2595,7 +2590,7 @@
         <v>167</v>
       </c>
       <c r="E89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2646,7 +2641,7 @@
         <v>137</v>
       </c>
       <c r="E92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2663,7 +2658,7 @@
         <v>161</v>
       </c>
       <c r="E93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2680,7 +2675,7 @@
         <v>170</v>
       </c>
       <c r="E94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2697,7 +2692,7 @@
         <v>171</v>
       </c>
       <c r="E95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2714,7 +2709,7 @@
         <v>139</v>
       </c>
       <c r="E96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2765,7 +2760,7 @@
         <v>173</v>
       </c>
       <c r="E99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2782,7 +2777,7 @@
         <v>127</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2799,7 +2794,7 @@
         <v>174</v>
       </c>
       <c r="E101" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
